--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2018_Secondary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2018_Secondary_o.xlsx
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C118" t="n">
